--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Projects\AutomationProject\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBB118-ACC8-41D0-9C58-411F979A6ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C8303-CA4F-46FC-8658-CA67D1A7483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1095" windowWidth="21045" windowHeight="10215" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
   </bookViews>
   <sheets>
     <sheet name="DataEngine" sheetId="1" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="SearchFlight" sheetId="3" r:id="rId3"/>
     <sheet name="BookFlight" sheetId="4" r:id="rId4"/>
+    <sheet name="DeleteBookings" sheetId="5" r:id="rId5"/>
+    <sheet name="UpdateMyProfile" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="128">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -352,6 +354,66 @@
   </si>
   <si>
     <t>Soft Airlines</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>DeleteBookings</t>
+  </si>
+  <si>
+    <t>Click Flight Booking</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Delete Item from Table</t>
+  </si>
+  <si>
+    <t>DeleteItemFromTable</t>
+  </si>
+  <si>
+    <t>Flight Bookings</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>UpdateMyProfile</t>
+  </si>
+  <si>
+    <t>Click My Profile</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>Enter Profile Name</t>
+  </si>
+  <si>
+    <t>Upload Profile Pic</t>
+  </si>
+  <si>
+    <t>Click Update</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>ProfilePic</t>
+  </si>
+  <si>
+    <t>//h4[normalize-space()='Congratulations, Your profile has been updated']</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>//input[@id='profile_pic']</t>
+  </si>
+  <si>
+    <t>E:\Automation Projects\AutomationProject\FileInput\3d Printed Spur gears.jpg</t>
   </si>
 </sst>
 </file>
@@ -409,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED22B53-E7A1-4CC4-ABC2-242141C6F311}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +859,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -804,7 +892,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266D743E-6359-4518-88D4-079992D9ED6C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D0659C-B08F-4200-9DEA-D144E156EEEB}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,4 +2063,736 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5162D975-5C28-40AF-8707-D2CA21B6AF15}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D4A2CB-A7A9-49A2-8673-C8A54D8F7959}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation Projects\AutomationProject\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C8303-CA4F-46FC-8658-CA67D1A7483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A430530-A707-485A-A1C9-0BEC7D4D85F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{03E423A5-42F9-4FBF-8471-492F80536B34}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="BookFlight" sheetId="4" r:id="rId4"/>
     <sheet name="DeleteBookings" sheetId="5" r:id="rId5"/>
     <sheet name="UpdateMyProfile" sheetId="6" r:id="rId6"/>
+    <sheet name="Ref" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="129">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -414,6 +415,9 @@
   </si>
   <si>
     <t>E:\Automation Projects\AutomationProject\FileInput\3d Printed Spur gears.jpg</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -480,9 +484,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,89 +807,101 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="C5" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04DA8978-3C36-4BBC-B881-0BD107D9218A}">
+          <x14:formula1>
+            <xm:f>Ref!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2070,7 +2088,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2276,7 @@
       <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2302,7 +2320,7 @@
         <v>86</v>
       </c>
       <c r="F11" s="1">
-        <v>11841</v>
+        <v>11848</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,4 +2813,27 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363EAAB-5830-4DFA-97B5-9815824B353B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>